--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1373,10 +1385,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1420,28 +1432,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1466,28 +1478,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1749,10 +1761,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1796,28 +1808,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1842,28 +1854,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2067,10 +2079,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2114,28 +2126,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2160,28 +2172,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2298,10 +2310,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2345,28 +2357,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2391,28 +2403,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2587,10 +2599,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2634,28 +2646,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2680,28 +2692,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2934,10 +2946,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="J97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2981,28 +2993,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3027,28 +3039,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3223,10 +3235,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="J107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3270,28 +3282,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3316,28 +3328,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3599,10 +3611,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="J120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3646,28 +3658,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3692,28 +3704,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3888,10 +3900,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
+      <c r="J130" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="2" t="s">
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3935,28 +3947,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3981,28 +3993,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4119,10 +4131,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4166,28 +4178,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4212,28 +4224,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4495,10 +4507,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4542,28 +4554,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4588,28 +4600,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4755,10 +4767,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
+      <c r="J160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4802,28 +4814,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4848,28 +4860,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5044,10 +5056,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
+      <c r="J170" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K170" s="2" t="s">
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5091,28 +5103,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5137,28 +5149,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5304,10 +5316,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
+      <c r="J179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5351,28 +5363,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5397,28 +5409,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5593,10 +5605,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
+      <c r="J189" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K189" s="2" t="s">
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5640,28 +5652,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5686,28 +5698,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5795,10 +5807,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
+      <c r="J196" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
